--- a/source/wishlist_raluca.xlsx
+++ b/source/wishlist_raluca.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/Raluca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="13_ncr:1_{42DA1030-8455-469F-B16E-3C80CA50A313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC103B8C-6DC0-4FAE-B1E5-D419F046B22F}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="13_ncr:1_{42DA1030-8455-469F-B16E-3C80CA50A313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFF558EA-FEB0-40AE-AC71-25FFA432C60B}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19395" windowHeight="23385" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="38175" yWindow="0" windowWidth="19425" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Raluca" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Image</t>
   </si>
@@ -159,6 +159,32 @@
   </si>
   <si>
     <t>18.67 CHF</t>
+  </si>
+  <si>
+    <t>Coco &amp; Eve
+SUPER HYDRATION KIT</t>
+  </si>
+  <si>
+    <t>https://fr.zalando.ch/coco-and-eve-super-hydration-kit250ml-shampoo-250ml-conditioner-set-pour-les-cheveux-c1o34h002-s11.html?_rfl=de</t>
+  </si>
+  <si>
+    <t>https://img01.ztat.net/article/spp-media-p1/9d02fd67425c4703b5bb9a29dfdb234d/da3a0877a08249b7a44ee5bb4d24335f.jpg?imwidth=1800&amp;filter=packshot</t>
+  </si>
+  <si>
+    <t>37 CHF</t>
+  </si>
+  <si>
+    <t>MAC
+MATTE LIPSTICK - culoare mehr</t>
+  </si>
+  <si>
+    <t>https://img01.ztat.net/article/spp-media-p1/4c4155d867594bb7969d7b3c5d8b5ce9/4815417c961e4ab4848f45d7a7a4bf2a.jpg?imwidth=1800&amp;filter=packshot</t>
+  </si>
+  <si>
+    <t>https://fr.zalando.ch/mac-matte-lipstick-richard-quinn-exclusive-edition-rouge-a-levres-mehr-m3t31e094-j15.html?_rfl=de</t>
+  </si>
+  <si>
+    <t>25 CHF</t>
   </si>
 </sst>
 </file>
@@ -293,6 +319,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -592,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,6 +777,34 @@
         <v>40</v>
       </c>
     </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D5">
     <sortCondition ref="D3:D5"/>

--- a/source/wishlist_raluca.xlsx
+++ b/source/wishlist_raluca.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/Raluca/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="13_ncr:1_{42DA1030-8455-469F-B16E-3C80CA50A313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFF558EA-FEB0-40AE-AC71-25FFA432C60B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A20EE2F-90BA-434E-9AAE-8AFD3FB689AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38175" yWindow="0" windowWidth="19425" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="23400" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Raluca" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Image</t>
   </si>
@@ -185,6 +185,43 @@
   </si>
   <si>
     <t>25 CHF</t>
+  </si>
+  <si>
+    <t>Charlotte Tilbury
+PILLOW TALK PUSH UP LASHES! - Mascara</t>
+  </si>
+  <si>
+    <t>https://img01.ztat.net/article/spp-media-p1/059e4f3815764914bd3a5cabb03ecb28/2f174c6d9cca4ddba6019c9337734634.jpg?imwidth=1800&amp;filter=packshot</t>
+  </si>
+  <si>
+    <t>https://fr.zalando.ch/charlotte-tilbury-pillow-talk-push-up-lashes-mascara-c5c34e035-s11.html?_rfl=de</t>
+  </si>
+  <si>
+    <t>39 CHF</t>
+  </si>
+  <si>
+    <t>https://amzn.eu/d/fxzOrlU</t>
+  </si>
+  <si>
+    <t>https://amzn.eu/d/hKdAdfZ</t>
+  </si>
+  <si>
+    <t>Shiatsu Heat Massager</t>
+  </si>
+  <si>
+    <t>Laneige Lip Sleeping Mask</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51R2w6yMcaL._SX450_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61Hx-AZNQ-L._AC_SX450_.jpg</t>
+  </si>
+  <si>
+    <t>39.97 EUR</t>
+  </si>
+  <si>
+    <t>18.02 EUR</t>
   </si>
 </sst>
 </file>
@@ -319,10 +356,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -622,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,6 +838,48 @@
         <v>48</v>
       </c>
     </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D5">
     <sortCondition ref="D3:D5"/>
